--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-21.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-21.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -616,23 +616,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17:03 - 1st Half</t>
+          <t>0:34 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -657,22 +657,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -681,28 +681,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -723,47 +723,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16:10 - 1st Half</t>
+          <t>0:34 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -784,47 +784,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17:03 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -835,27 +835,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,28 +864,28 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -896,57 +896,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -967,47 +967,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16:10 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1023,22 +1023,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -1084,12 +1084,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1108,28 +1108,28 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16:10 - 1st Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1201,57 +1201,57 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16:10 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1262,17 +1262,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1287,32 +1287,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16:10 - 1st Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -1323,57 +1323,57 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17:03 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1450,52 +1450,52 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dedan Thomas Jr.</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:34 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
         <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1516,17 +1516,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,25 +1535,25 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>32</v>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1577,47 +1577,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1638,35 +1638,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -1689,45 +1689,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17:03 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,28 +1779,28 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1816,52 +1816,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:34 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
+        <v>20</v>
+      </c>
+      <c r="I23" t="n">
+        <v>13</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" t="n">
         <v>6</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -1877,52 +1877,52 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17:03 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1962,28 +1962,28 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I25" t="n">
+        <v>10</v>
+      </c>
+      <c r="J25" t="n">
         <v>7</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2004,35 +2004,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17:03 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2065,47 +2065,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2126,17 +2126,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2145,10 +2145,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I28" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
         <v>6</v>
@@ -2157,16 +2157,16 @@
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,16 +2206,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2238,27 +2238,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="n">
         <v>28</v>
-      </c>
-      <c r="I30" t="n">
-        <v>15</v>
-      </c>
-      <c r="J30" t="n">
-        <v>21</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -2299,57 +2299,57 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:34 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>3</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2385,32 +2385,32 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17:03 - 1st Half</t>
+          <t>0:34 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -2421,27 +2421,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,16 +2450,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -2482,27 +2482,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Kuol Atak</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2511,28 +2511,28 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2553,17 +2553,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -2584,16 +2584,16 @@
         <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -2604,22 +2604,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J36" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" t="n">
         <v>3</v>
       </c>
-      <c r="K36" t="n">
-        <v>5</v>
-      </c>
       <c r="L36" t="n">
         <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O36" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -2665,17 +2665,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2694,28 +2694,28 @@
         </is>
       </c>
       <c r="H37" t="n">
+        <v>17</v>
+      </c>
+      <c r="I37" t="n">
+        <v>17</v>
+      </c>
+      <c r="J37" t="n">
         <v>6</v>
       </c>
-      <c r="I37" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2751,20 +2751,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>16:10 - 1st Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2797,35 +2797,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16:10 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2848,27 +2848,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2877,19 +2877,19 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
@@ -2909,45 +2909,45 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:34 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -2970,27 +2970,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2999,16 +2999,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3041,17 +3041,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3060,28 +3060,28 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3102,44 +3102,44 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:34 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I44" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>26</v>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3163,12 +3163,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Kuol Atak</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3182,19 +3182,19 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3214,27 +3214,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3243,10 +3243,10 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J46" t="n">
         <v>3</v>
@@ -3258,13 +3258,13 @@
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -3275,57 +3275,57 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>16:10 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
+        <v>16</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
         <v>3</v>
       </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2</v>
-      </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -3336,27 +3336,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,19 +3365,19 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>3</v>
       </c>
       <c r="O48" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -3397,57 +3397,57 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17:03 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,28 +3487,28 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3529,47 +3529,47 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>17:03 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3590,35 +3590,35 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Alex Lloyd</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3651,47 +3651,47 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CJ Ingram</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -3712,47 +3712,47 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>16:10 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3810,10 +3810,10 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
@@ -3834,35 +3834,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16:10 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
@@ -3895,35 +3895,35 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17:03 - 1st Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
@@ -3956,47 +3956,2670 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>T.O. Barrett</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>14</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9</v>
+      </c>
+      <c r="J58" t="n">
+        <v>6</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>13</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>D.J. Wagner</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>12</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sebastian Williams-Adams</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>AUB@MISS</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>12</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>AUB@MISS</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>12</v>
+      </c>
+      <c r="I62" t="n">
+        <v>15</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Isaiah Brown</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LSU@FLA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>11</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+      <c r="O63" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LSU@FLA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>11</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Shawn Phillips Jr.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Corey Chest</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>AUB@MISS</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>6</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Robert Miller III</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LSU@FLA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>OU@SC</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Filip Jović</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>AUB@MISS</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Jalen Reece</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>LSU@FLA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Augusto Cassiá</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>AUB@MISS</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>OU@SC</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Tyler Harris</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>AUB@MISS</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Blake Muschalek</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>AUB@MISS</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Hayden Assemian</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>OU@SC</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>AUB@MISS</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Miles Keeffe</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Alex Lloyd</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LSU@FLA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Amere Brown</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CJ Ingram</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LSU@FLA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Eduardo Klafke</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>AUB@MISS</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Elmir Džafić</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Jaden Karuletwa</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Luke Northweather</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>PJ Carter</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LSU@FLA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ayden Kelley</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Isaiah Sealy</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>Mazi Mosley</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>LSU</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>LSU@FLA</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="H98" t="n">
         <v>-1</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Sebastian Mack</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Jordan Ross</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0:34 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2</v>
+      </c>
+      <c r="O101" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4047,33 +6670,33 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -4082,11 +6705,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -4095,37 +6718,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-21.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-21.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -738,14 +738,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -921,7 +921,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -1455,41 +1455,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>2</v>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,28 +1535,28 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -1577,47 +1577,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -2065,47 +2065,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -2126,17 +2126,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2148,25 +2148,25 @@
         <v>13</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,28 +2206,28 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
         <v>4</v>
       </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -3117,14 +3117,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J44" t="n">
         <v>4</v>
@@ -3605,14 +3605,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I52" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J52" t="n">
         <v>2</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -3666,14 +3666,14 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
         <v>6</v>
@@ -3691,7 +3691,7 @@
         <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J55" t="n">
         <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3810,10 +3810,10 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3856,14 +3856,14 @@
         <v>16</v>
       </c>
       <c r="I56" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J56" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" t="n">
         <v>3</v>
       </c>
-      <c r="K56" t="n">
-        <v>2</v>
-      </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
@@ -3895,35 +3895,35 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I57" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
@@ -3971,11 +3971,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="n">
         <v>9</v>
@@ -3984,7 +3984,7 @@
         <v>6</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
         <v>2</v>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -4179,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="O61" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -5359,12 +5359,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5374,23 +5374,23 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -5420,22 +5420,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -5448,19 +5448,19 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -5481,17 +5481,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5506,22 +5506,22 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -5542,22 +5542,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Miles Keeffe</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -5570,10 +5570,10 @@
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -5603,17 +5603,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Miles Keeffe</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -6558,7 +6558,7 @@
         <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0:34 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -6666,11 +6666,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -6679,11 +6679,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
